--- a/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/eanImportSchema_cn.xlsx
+++ b/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/eanImportSchema_cn.xlsx
@@ -1,92 +1,244 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuho\Desktop\Import templates - 副本\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EE23A8-4E4B-4A5D-8C37-E063844763F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="EAN code" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Anna Kaźmierczak</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{EFA9A371-EF94-4CD8-9581-AA9843AA2CA1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必填数据：输入的编号需要已被定义在qcadoo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{760C484F-55F5-4462-ACA7-CB374E4AC584}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必填数据：输入产品</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>EAN</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>码。请记住，一个代码可以分配给一个产品，除非您选择了参数</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>多个物品可以用相同的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>EAN</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代码</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>产品编码</t>
+    <t>产品编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
       <t xml:space="preserve">EAN </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t>编码</t>
+      <t>编号</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="15"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -94,84 +246,181 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+        <charset val="238"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+        <charset val="238"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+        <charset val="238"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle name="Styl tabeli 1" pivot="0" count="1" xr9:uid="{C97D6983-5E9B-4C17-9A18-96ED7BA4DEFD}">
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D45FCD21-D522-4481-9D20-CE04FB1D95C4}" name="eanImportSchema_en" displayName="eanImportSchema_en" ref="A1:B2" insertRow="1" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:B2" xr:uid="{D45FCD21-D522-4481-9D20-CE04FB1D95C4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1C11225F-8DF9-445F-BF3F-5C9D02A6B7FE}" name="产品编号" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C9A9BB96-EB01-4046-84AB-0DB39E93FD76}" name="EAN 编号" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Motyw pakietu Office">
       <a:dk1>
@@ -363,17 +612,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -392,19 +641,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -422,7 +671,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -448,7 +697,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -474,7 +723,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -500,7 +749,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -526,7 +775,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -552,7 +801,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -578,7 +827,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -604,7 +853,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -630,7 +879,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -643,26 +892,32 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -681,7 +936,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -707,7 +962,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -733,7 +988,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -759,7 +1014,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -785,7 +1040,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -811,7 +1066,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -837,7 +1092,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -863,7 +1118,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -889,7 +1144,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -915,7 +1170,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -928,9 +1183,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -944,7 +1205,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -963,19 +1224,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -993,7 +1254,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1019,7 +1280,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1045,7 +1306,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1071,7 +1332,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1097,7 +1358,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1123,7 +1384,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1149,7 +1410,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1175,7 +1436,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1201,7 +1462,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,285 +1475,307 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.9" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="16.8516" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="2" width="16.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.8984375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.8984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.95" customHeight="1">
+    <row r="2" spans="1:2" ht="15.9" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" ht="15.95" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" ht="15.95" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" ht="15.95" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" ht="15.95" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" ht="15.95" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" ht="15.95" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" ht="15.95" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" ht="15.95" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" ht="15.95" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" ht="15.95" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" ht="15.95" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" ht="15.95" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" ht="15.95" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" ht="15.95" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" ht="15.95" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" ht="15.95" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" ht="15.95" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" ht="15.95" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" ht="15.95" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" ht="15.95" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" ht="15.95" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" ht="15.95" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" ht="15.95" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" ht="15.95" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" ht="15.95" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" ht="15.95" customHeight="1">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" ht="15.95" customHeight="1">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" ht="15.95" customHeight="1">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" ht="15.95" customHeight="1">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" ht="15.95" customHeight="1">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" ht="15.95" customHeight="1">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" ht="15.95" customHeight="1">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" ht="15.95" customHeight="1">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" ht="15.95" customHeight="1">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" ht="15.95" customHeight="1">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" ht="15.95" customHeight="1">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" ht="15.95" customHeight="1">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" ht="15.95" customHeight="1">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" ht="15.95" customHeight="1">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" ht="15.95" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" ht="15.95" customHeight="1">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" ht="15.95" customHeight="1">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" ht="15.95" customHeight="1">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" ht="15.95" customHeight="1">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" ht="15.95" customHeight="1">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" ht="15.95" customHeight="1">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" ht="15.95" customHeight="1">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" ht="15.95" customHeight="1">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" ht="15.95" customHeight="1">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" ht="15.95" customHeight="1">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" ht="15.95" customHeight="1">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" ht="15.95" customHeight="1">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" ht="15.95" customHeight="1">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-    </row>
-    <row r="62" ht="15.95" customHeight="1">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+    <row r="3" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" ht="15.9" customHeight="1">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>